--- a/venv/Data/try.xlsx
+++ b/venv/Data/try.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>是是是</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,15 +159,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>88d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto_test_7_T95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88d@snapmail.cc</t>
+    <t>T95_ind_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T95_ind_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T95_ind_porduct_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T95_ind_Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChloeCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79d@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_test_10_T95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86ee@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto_test_6_T95_ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T97_corp_UploadDocName</t>
+  </si>
+  <si>
+    <t>Passport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T97_corp_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T97_corp_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T97_corp_Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98f@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +276,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.3"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -244,6 +314,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -573,10 +646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -594,7 +667,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -602,7 +675,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -610,7 +683,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -618,7 +691,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -626,161 +699,249 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B2" r:id="rId5" location="/login"/>
     <hyperlink ref="B3" r:id="rId6" location="/login"/>
-    <hyperlink ref="B18" r:id="rId7"/>
-    <hyperlink ref="B17" r:id="rId8"/>
-    <hyperlink ref="B20" r:id="rId9" display="97c@snapmail.cc"/>
-    <hyperlink ref="B23" r:id="rId10"/>
-    <hyperlink ref="B22" r:id="rId11"/>
-    <hyperlink ref="B25" r:id="rId12" display="95d@snapmail.cc"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B18" r:id="rId8"/>
+    <hyperlink ref="B21" r:id="rId9" display="97c@snapmail.cc"/>
+    <hyperlink ref="B24" r:id="rId10"/>
+    <hyperlink ref="B23" r:id="rId11"/>
+    <hyperlink ref="B26" r:id="rId12" display="95d@snapmail.cc"/>
+    <hyperlink ref="B29" r:id="rId13"/>
+    <hyperlink ref="B28" r:id="rId14"/>
+    <hyperlink ref="B31" r:id="rId15" display="95d@snapmail.cc"/>
+    <hyperlink ref="B34" r:id="rId16"/>
+    <hyperlink ref="B33" r:id="rId17"/>
+    <hyperlink ref="B35" r:id="rId18" display="95d@snapmail.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/venv/Data/try.xlsx
+++ b/venv/Data/try.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>是是是</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,11 +226,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>98f@snapmail.cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98f</t>
+    <t>T97_ind_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T97_ind_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T97_ind_Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T97_ind_UploadDocName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Board Resolution Document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99g@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96f@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,16 +674,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="36.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -888,15 +916,15 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>6</v>
@@ -904,18 +932,50 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -939,9 +999,12 @@
     <hyperlink ref="B34" r:id="rId16"/>
     <hyperlink ref="B33" r:id="rId17"/>
     <hyperlink ref="B35" r:id="rId18" display="95d@snapmail.cc"/>
+    <hyperlink ref="B39" r:id="rId19"/>
+    <hyperlink ref="B38" r:id="rId20"/>
+    <hyperlink ref="B40" r:id="rId21" display="95d@snapmail.cc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/venv/Data/try.xlsx
+++ b/venv/Data/try.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>是是是</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,19 +246,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>99g@snapmail.cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>96f@snapmail.cc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>96f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98g@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_CorpEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_CorpName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_DocumentType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_DocumentType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_Rep1Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_Rep1Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_Rep2Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_Rep2Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_Rep3Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_Rep3Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>National ID Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_Rep2Doc2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_NewProductName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99h@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99hrep1@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99hrep1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99hrep2@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99hrep2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99hrep3@snapmail.cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99hrep3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Link_NewCorp_WithRep_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +407,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -333,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +447,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -674,10 +777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -919,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -935,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -951,7 +1054,7 @@
         <v>48</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -967,7 +1070,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -976,6 +1079,110 @@
       </c>
       <c r="B41" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1002,9 +1209,14 @@
     <hyperlink ref="B39" r:id="rId19"/>
     <hyperlink ref="B38" r:id="rId20"/>
     <hyperlink ref="B40" r:id="rId21" display="95d@snapmail.cc"/>
+    <hyperlink ref="B44" r:id="rId22"/>
+    <hyperlink ref="B46" r:id="rId23"/>
+    <hyperlink ref="B48" r:id="rId24"/>
+    <hyperlink ref="B52" r:id="rId25"/>
+    <hyperlink ref="B55" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/venv/Data/try.xlsx
+++ b/venv/Data/try.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestEnv" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="85">
   <si>
     <t>是是是</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,10 @@
   </si>
   <si>
     <t>99h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T110_UploadDocument</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,10 +781,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1183,6 +1187,14 @@
       </c>
       <c r="B56" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
